--- a/results/tinybert/sentiment/confidence/0.1/avg_scores.xlsx
+++ b/results/tinybert/sentiment/confidence/0.1/avg_scores.xlsx
@@ -16,462 +16,462 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="1145">
   <si>
+    <t>anchor score</t>
+  </si>
+  <si>
+    <t>type occurences</t>
+  </si>
+  <si>
+    <t>total occurences</t>
+  </si>
+  <si>
+    <t>+%</t>
+  </si>
+  <si>
+    <t>-%</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>futile</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>criminal</t>
+  </si>
+  <si>
+    <t>neglected</t>
+  </si>
+  <si>
+    <t>generic</t>
+  </si>
+  <si>
+    <t>kicks</t>
+  </si>
+  <si>
+    <t>tract</t>
+  </si>
+  <si>
+    <t>whimper</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>substitutes</t>
+  </si>
+  <si>
+    <t>damp</t>
+  </si>
+  <si>
+    <t>littered</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>martial</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>rubbish</t>
+  </si>
+  <si>
+    <t>resembling</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>irrelevant</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>slick</t>
+  </si>
+  <si>
+    <t>plum</t>
+  </si>
+  <si>
+    <t>stupidity</t>
+  </si>
+  <si>
+    <t>unaware</t>
+  </si>
+  <si>
+    <t>pointless</t>
+  </si>
+  <si>
+    <t>lazy</t>
+  </si>
+  <si>
+    <t>slips</t>
+  </si>
+  <si>
+    <t>confuse</t>
+  </si>
+  <si>
+    <t>depends</t>
+  </si>
+  <si>
+    <t>heavily</t>
+  </si>
+  <si>
+    <t>clown</t>
+  </si>
+  <si>
+    <t>nr</t>
+  </si>
+  <si>
+    <t>wreckage</t>
+  </si>
+  <si>
+    <t>rack</t>
+  </si>
+  <si>
+    <t>indifferent</t>
+  </si>
+  <si>
+    <t>programmer</t>
+  </si>
+  <si>
+    <t>stealing</t>
+  </si>
+  <si>
+    <t>inactive</t>
+  </si>
+  <si>
+    <t>sunk</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>expecting</t>
+  </si>
+  <si>
+    <t>sucks</t>
+  </si>
+  <si>
+    <t>linux</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>dreadful</t>
+  </si>
+  <si>
+    <t>isolated</t>
+  </si>
+  <si>
+    <t>slug</t>
+  </si>
+  <si>
+    <t>muddy</t>
+  </si>
+  <si>
+    <t>exhaust</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>meaningless</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>inconsistent</t>
+  </si>
+  <si>
+    <t>wasted</t>
+  </si>
+  <si>
+    <t>punched</t>
+  </si>
+  <si>
+    <t>rumor</t>
+  </si>
+  <si>
+    <t>unsuccessfully</t>
+  </si>
+  <si>
+    <t>glacial</t>
+  </si>
+  <si>
+    <t>dubbed</t>
+  </si>
+  <si>
+    <t>abruptly</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>shoot</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>vacant</t>
+  </si>
+  <si>
+    <t>excessive</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>overdose</t>
+  </si>
+  <si>
+    <t>coma</t>
+  </si>
+  <si>
+    <t>using</t>
+  </si>
+  <si>
+    <t>replaced</t>
+  </si>
+  <si>
+    <t>unfortunate</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>assault</t>
+  </si>
+  <si>
+    <t>bankrupt</t>
+  </si>
+  <si>
+    <t>sk</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>mach</t>
+  </si>
+  <si>
+    <t>hats</t>
+  </si>
+  <si>
+    <t>ruined</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>parody</t>
+  </si>
+  <si>
+    <t>screwing</t>
+  </si>
+  <si>
+    <t>debris</t>
+  </si>
+  <si>
+    <t>reportedly</t>
+  </si>
+  <si>
+    <t>depressed</t>
+  </si>
+  <si>
+    <t>woods</t>
+  </si>
+  <si>
+    <t>scoring</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>idiot</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>dazed</t>
+  </si>
+  <si>
+    <t>confused</t>
+  </si>
+  <si>
+    <t>pornography</t>
+  </si>
+  <si>
+    <t>cheaper</t>
+  </si>
+  <si>
+    <t>trivial</t>
+  </si>
+  <si>
+    <t>fled</t>
+  </si>
+  <si>
+    <t>whatsoever</t>
+  </si>
+  <si>
+    <t>reginald</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>fictitious</t>
+  </si>
+  <si>
+    <t>equals</t>
+  </si>
+  <si>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>abrupt</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>leaks</t>
+  </si>
+  <si>
+    <t>rigid</t>
+  </si>
+  <si>
+    <t>pistol</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>hodge</t>
+  </si>
+  <si>
+    <t>troll</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>fugitive</t>
+  </si>
+  <si>
+    <t>slapping</t>
+  </si>
+  <si>
+    <t>colored</t>
+  </si>
+  <si>
+    <t>embarrassing</t>
+  </si>
+  <si>
+    <t>relay</t>
+  </si>
+  <si>
+    <t>neutral</t>
+  </si>
+  <si>
+    <t>activate</t>
+  </si>
+  <si>
+    <t>sinks</t>
+  </si>
+  <si>
+    <t>harmless</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>cigarette</t>
+  </si>
+  <si>
+    <t>smoke</t>
+  </si>
+  <si>
+    <t>pilot</t>
+  </si>
+  <si>
+    <t>targeted</t>
+  </si>
+  <si>
+    <t>redundant</t>
+  </si>
+  <si>
+    <t>stretched</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>topical</t>
+  </si>
+  <si>
+    <t>spiders</t>
+  </si>
+  <si>
+    <t>motorcycle</t>
+  </si>
+  <si>
+    <t>bored</t>
+  </si>
+  <si>
+    <t>divided</t>
+  </si>
+  <si>
+    <t>crippled</t>
+  </si>
+  <si>
+    <t>threw</t>
+  </si>
+  <si>
+    <t>disastrous</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>uhf</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>anchor score</t>
-  </si>
-  <si>
-    <t>type occurences</t>
-  </si>
-  <si>
-    <t>total occurences</t>
-  </si>
-  <si>
-    <t>+%</t>
-  </si>
-  <si>
-    <t>-%</t>
-  </si>
-  <si>
-    <t>both</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>limit</t>
-  </si>
-  <si>
-    <t>futile</t>
-  </si>
-  <si>
-    <t>pathetic</t>
-  </si>
-  <si>
-    <t>criminal</t>
-  </si>
-  <si>
-    <t>neglected</t>
-  </si>
-  <si>
-    <t>generic</t>
-  </si>
-  <si>
-    <t>kicks</t>
-  </si>
-  <si>
-    <t>tract</t>
-  </si>
-  <si>
-    <t>whimper</t>
-  </si>
-  <si>
-    <t>badly</t>
-  </si>
-  <si>
-    <t>substitutes</t>
-  </si>
-  <si>
-    <t>damp</t>
-  </si>
-  <si>
-    <t>littered</t>
-  </si>
-  <si>
-    <t>zero</t>
-  </si>
-  <si>
-    <t>martial</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>rubbish</t>
-  </si>
-  <si>
-    <t>resembling</t>
-  </si>
-  <si>
-    <t>mono</t>
-  </si>
-  <si>
-    <t>irrelevant</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>slick</t>
-  </si>
-  <si>
-    <t>plum</t>
-  </si>
-  <si>
-    <t>stupidity</t>
-  </si>
-  <si>
-    <t>unaware</t>
-  </si>
-  <si>
-    <t>pointless</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>slips</t>
-  </si>
-  <si>
-    <t>confuse</t>
-  </si>
-  <si>
-    <t>depends</t>
-  </si>
-  <si>
-    <t>heavily</t>
-  </si>
-  <si>
-    <t>clown</t>
-  </si>
-  <si>
-    <t>nr</t>
-  </si>
-  <si>
-    <t>wreckage</t>
-  </si>
-  <si>
-    <t>rack</t>
-  </si>
-  <si>
-    <t>indifferent</t>
-  </si>
-  <si>
-    <t>programmer</t>
-  </si>
-  <si>
-    <t>stealing</t>
-  </si>
-  <si>
-    <t>inactive</t>
-  </si>
-  <si>
-    <t>sunk</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>expecting</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>linux</t>
-  </si>
-  <si>
-    <t>rejected</t>
-  </si>
-  <si>
-    <t>dreadful</t>
-  </si>
-  <si>
-    <t>isolated</t>
-  </si>
-  <si>
-    <t>slug</t>
-  </si>
-  <si>
-    <t>muddy</t>
-  </si>
-  <si>
-    <t>exhaust</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>meaningless</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>inconsistent</t>
-  </si>
-  <si>
-    <t>wasted</t>
-  </si>
-  <si>
-    <t>punched</t>
-  </si>
-  <si>
-    <t>rumor</t>
-  </si>
-  <si>
-    <t>unsuccessfully</t>
-  </si>
-  <si>
-    <t>glacial</t>
-  </si>
-  <si>
-    <t>dubbed</t>
-  </si>
-  <si>
-    <t>abruptly</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>shoot</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>vacant</t>
-  </si>
-  <si>
-    <t>excessive</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>overdose</t>
-  </si>
-  <si>
-    <t>coma</t>
-  </si>
-  <si>
-    <t>using</t>
-  </si>
-  <si>
-    <t>replaced</t>
-  </si>
-  <si>
-    <t>unfortunate</t>
-  </si>
-  <si>
-    <t>arbitrary</t>
-  </si>
-  <si>
-    <t>assault</t>
-  </si>
-  <si>
-    <t>bankrupt</t>
-  </si>
-  <si>
-    <t>sk</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>mach</t>
-  </si>
-  <si>
-    <t>hats</t>
-  </si>
-  <si>
-    <t>ruined</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>parody</t>
-  </si>
-  <si>
-    <t>screwing</t>
-  </si>
-  <si>
-    <t>debris</t>
-  </si>
-  <si>
-    <t>reportedly</t>
-  </si>
-  <si>
-    <t>depressed</t>
-  </si>
-  <si>
-    <t>woods</t>
-  </si>
-  <si>
-    <t>scoring</t>
-  </si>
-  <si>
-    <t>python</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>idiot</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>dazed</t>
-  </si>
-  <si>
-    <t>confused</t>
-  </si>
-  <si>
-    <t>pornography</t>
-  </si>
-  <si>
-    <t>cheaper</t>
-  </si>
-  <si>
-    <t>trivial</t>
-  </si>
-  <si>
-    <t>fled</t>
-  </si>
-  <si>
-    <t>whatsoever</t>
-  </si>
-  <si>
-    <t>reginald</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>fictitious</t>
-  </si>
-  <si>
-    <t>equals</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
-    <t>abrupt</t>
-  </si>
-  <si>
-    <t>slide</t>
-  </si>
-  <si>
-    <t>leaks</t>
-  </si>
-  <si>
-    <t>rigid</t>
-  </si>
-  <si>
-    <t>pistol</t>
-  </si>
-  <si>
-    <t>photos</t>
-  </si>
-  <si>
-    <t>hodge</t>
-  </si>
-  <si>
-    <t>troll</t>
-  </si>
-  <si>
-    <t>section</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>fugitive</t>
-  </si>
-  <si>
-    <t>slapping</t>
-  </si>
-  <si>
-    <t>colored</t>
-  </si>
-  <si>
-    <t>embarrassing</t>
-  </si>
-  <si>
-    <t>relay</t>
-  </si>
-  <si>
-    <t>neutral</t>
-  </si>
-  <si>
-    <t>activate</t>
-  </si>
-  <si>
-    <t>sinks</t>
-  </si>
-  <si>
-    <t>harmless</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>cigarette</t>
-  </si>
-  <si>
-    <t>smoke</t>
-  </si>
-  <si>
-    <t>pilot</t>
-  </si>
-  <si>
-    <t>targeted</t>
-  </si>
-  <si>
-    <t>redundant</t>
-  </si>
-  <si>
-    <t>stretched</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>topical</t>
-  </si>
-  <si>
-    <t>spiders</t>
-  </si>
-  <si>
-    <t>motorcycle</t>
-  </si>
-  <si>
-    <t>bored</t>
-  </si>
-  <si>
-    <t>divided</t>
-  </si>
-  <si>
-    <t>crippled</t>
-  </si>
-  <si>
-    <t>threw</t>
-  </si>
-  <si>
-    <t>disastrous</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>uhf</t>
-  </si>
-  <si>
     <t>ounce</t>
   </si>
   <si>
@@ -3052,403 +3052,403 @@
     <t>you</t>
   </si>
   <si>
+    <t>marvelous</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>richly</t>
+  </si>
+  <si>
+    <t>impress</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>artists</t>
+  </si>
+  <si>
+    <t>guru</t>
+  </si>
+  <si>
+    <t>memorial</t>
+  </si>
+  <si>
+    <t>forefront</t>
+  </si>
+  <si>
+    <t>gratitude</t>
+  </si>
+  <si>
+    <t>enjoys</t>
+  </si>
+  <si>
+    <t>revelation</t>
+  </si>
+  <si>
+    <t>dignity</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>efficient</t>
+  </si>
+  <si>
+    <t>bien</t>
+  </si>
+  <si>
+    <t>refreshing</t>
+  </si>
+  <si>
+    <t>splendid</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
+    <t>immensely</t>
+  </si>
+  <si>
+    <t>helped</t>
+  </si>
+  <si>
+    <t>celebration</t>
+  </si>
+  <si>
+    <t>gifted</t>
+  </si>
+  <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>exquisite</t>
+  </si>
+  <si>
+    <t>remarkable</t>
+  </si>
+  <si>
+    <t>influences</t>
+  </si>
+  <si>
+    <t>reflective</t>
+  </si>
+  <si>
+    <t>effortlessly</t>
+  </si>
+  <si>
+    <t>extraordinary</t>
+  </si>
+  <si>
+    <t>genius</t>
+  </si>
+  <si>
+    <t>divine</t>
+  </si>
+  <si>
+    <t>embracing</t>
+  </si>
+  <si>
+    <t>milestone</t>
+  </si>
+  <si>
+    <t>flawless</t>
+  </si>
+  <si>
+    <t>serene</t>
+  </si>
+  <si>
+    <t>chateau</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>bringing</t>
+  </si>
+  <si>
+    <t>stimulating</t>
+  </si>
+  <si>
+    <t>holy</t>
+  </si>
+  <si>
+    <t>lavish</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>greatest</t>
+  </si>
+  <si>
+    <t>enjoyable</t>
+  </si>
+  <si>
+    <t>exceptional</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>delicious</t>
+  </si>
+  <si>
+    <t>delightful</t>
+  </si>
+  <si>
+    <t>tremendous</t>
+  </si>
+  <si>
+    <t>france</t>
+  </si>
+  <si>
+    <t>passionate</t>
+  </si>
+  <si>
+    <t>irresistible</t>
+  </si>
+  <si>
+    <t>celebrated</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>impressive</t>
+  </si>
+  <si>
+    <t>absorbing</t>
+  </si>
+  <si>
+    <t>delight</t>
+  </si>
+  <si>
+    <t>stunning</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t>daring</t>
+  </si>
+  <si>
+    <t>experiences</t>
+  </si>
+  <si>
+    <t>spiritual</t>
+  </si>
+  <si>
+    <t>inviting</t>
+  </si>
+  <si>
+    <t>imaginative</t>
+  </si>
+  <si>
+    <t>entertain</t>
+  </si>
+  <si>
+    <t>entertaining</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>manages</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>dazzling</t>
+  </si>
+  <si>
+    <t>courage</t>
+  </si>
+  <si>
+    <t>energetic</t>
+  </si>
+  <si>
+    <t>appreciate</t>
+  </si>
+  <si>
+    <t>comfort</t>
+  </si>
+  <si>
+    <t>humanity</t>
+  </si>
+  <si>
+    <t>honesty</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>pleasure</t>
+  </si>
+  <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>vibrant</t>
+  </si>
+  <si>
+    <t>terrific</t>
+  </si>
+  <si>
+    <t>spectacular</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>astonishing</t>
+  </si>
+  <si>
+    <t>triumph</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>lovely</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>gorgeous</t>
+  </si>
+  <si>
+    <t>surprises</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>brings</t>
+  </si>
+  <si>
+    <t>haunting</t>
+  </si>
+  <si>
+    <t>thoughtful</t>
+  </si>
+  <si>
+    <t>engaging</t>
+  </si>
+  <si>
+    <t>worthy</t>
+  </si>
+  <si>
+    <t>memorable</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>welcome</t>
+  </si>
+  <si>
+    <t>genuine</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>insight</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>fascinating</t>
+  </si>
+  <si>
+    <t>culture</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>charming</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>charm</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>cinema</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>performances</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
     <t>positive</t>
-  </si>
-  <si>
-    <t>marvelous</t>
-  </si>
-  <si>
-    <t>achievement</t>
-  </si>
-  <si>
-    <t>richly</t>
-  </si>
-  <si>
-    <t>impress</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>enthusiastic</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>artists</t>
-  </si>
-  <si>
-    <t>guru</t>
-  </si>
-  <si>
-    <t>memorial</t>
-  </si>
-  <si>
-    <t>forefront</t>
-  </si>
-  <si>
-    <t>gratitude</t>
-  </si>
-  <si>
-    <t>enjoys</t>
-  </si>
-  <si>
-    <t>revelation</t>
-  </si>
-  <si>
-    <t>dignity</t>
-  </si>
-  <si>
-    <t>award</t>
-  </si>
-  <si>
-    <t>efficient</t>
-  </si>
-  <si>
-    <t>bien</t>
-  </si>
-  <si>
-    <t>refreshing</t>
-  </si>
-  <si>
-    <t>splendid</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
-    <t>immensely</t>
-  </si>
-  <si>
-    <t>helped</t>
-  </si>
-  <si>
-    <t>celebration</t>
-  </si>
-  <si>
-    <t>gifted</t>
-  </si>
-  <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>exquisite</t>
-  </si>
-  <si>
-    <t>remarkable</t>
-  </si>
-  <si>
-    <t>influences</t>
-  </si>
-  <si>
-    <t>reflective</t>
-  </si>
-  <si>
-    <t>effortlessly</t>
-  </si>
-  <si>
-    <t>extraordinary</t>
-  </si>
-  <si>
-    <t>genius</t>
-  </si>
-  <si>
-    <t>divine</t>
-  </si>
-  <si>
-    <t>embracing</t>
-  </si>
-  <si>
-    <t>milestone</t>
-  </si>
-  <si>
-    <t>flawless</t>
-  </si>
-  <si>
-    <t>serene</t>
-  </si>
-  <si>
-    <t>chateau</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>bringing</t>
-  </si>
-  <si>
-    <t>stimulating</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>lavish</t>
-  </si>
-  <si>
-    <t>friendship</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>greatest</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>exceptional</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>delicious</t>
-  </si>
-  <si>
-    <t>delightful</t>
-  </si>
-  <si>
-    <t>tremendous</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>passionate</t>
-  </si>
-  <si>
-    <t>irresistible</t>
-  </si>
-  <si>
-    <t>celebrated</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>impressive</t>
-  </si>
-  <si>
-    <t>absorbing</t>
-  </si>
-  <si>
-    <t>delight</t>
-  </si>
-  <si>
-    <t>stunning</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>compelling</t>
-  </si>
-  <si>
-    <t>daring</t>
-  </si>
-  <si>
-    <t>experiences</t>
-  </si>
-  <si>
-    <t>spiritual</t>
-  </si>
-  <si>
-    <t>inviting</t>
-  </si>
-  <si>
-    <t>imaginative</t>
-  </si>
-  <si>
-    <t>entertain</t>
-  </si>
-  <si>
-    <t>entertaining</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>manages</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>dazzling</t>
-  </si>
-  <si>
-    <t>courage</t>
-  </si>
-  <si>
-    <t>energetic</t>
-  </si>
-  <si>
-    <t>appreciate</t>
-  </si>
-  <si>
-    <t>comfort</t>
-  </si>
-  <si>
-    <t>humanity</t>
-  </si>
-  <si>
-    <t>honesty</t>
-  </si>
-  <si>
-    <t>profound</t>
-  </si>
-  <si>
-    <t>pleasure</t>
-  </si>
-  <si>
-    <t>vivid</t>
-  </si>
-  <si>
-    <t>vibrant</t>
-  </si>
-  <si>
-    <t>terrific</t>
-  </si>
-  <si>
-    <t>spectacular</t>
-  </si>
-  <si>
-    <t>successful</t>
-  </si>
-  <si>
-    <t>astonishing</t>
-  </si>
-  <si>
-    <t>triumph</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>lovely</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>gorgeous</t>
-  </si>
-  <si>
-    <t>surprises</t>
-  </si>
-  <si>
-    <t>joy</t>
-  </si>
-  <si>
-    <t>brings</t>
-  </si>
-  <si>
-    <t>haunting</t>
-  </si>
-  <si>
-    <t>thoughtful</t>
-  </si>
-  <si>
-    <t>engaging</t>
-  </si>
-  <si>
-    <t>worthy</t>
-  </si>
-  <si>
-    <t>memorable</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>welcome</t>
-  </si>
-  <si>
-    <t>genuine</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>journey</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>insight</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>spirit</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>culture</t>
-  </si>
-  <si>
-    <t>passion</t>
-  </si>
-  <si>
-    <t>charming</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>intelligent</t>
-  </si>
-  <si>
-    <t>charm</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>cinema</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>performances</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>film</t>
   </si>
 </sst>
 </file>
@@ -3814,65 +3814,65 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="J1" t="s">
-        <v>1012</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3972,7 +3972,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3996,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -4122,7 +4122,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -4172,7 +4172,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -4196,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -4272,7 +4272,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4296,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -4322,7 +4322,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4396,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -4472,7 +4472,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -4596,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4622,7 +4622,7 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4722,7 +4722,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4772,7 +4772,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K21">
         <v>0.8461538461538461</v>
@@ -4822,7 +4822,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K22">
         <v>0.75</v>
@@ -4872,7 +4872,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K23">
         <v>0.6923076923076923</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K24">
         <v>0.6666666666666666</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K25">
         <v>0.6666666666666666</v>
@@ -5022,7 +5022,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K26">
         <v>0.6666666666666666</v>
@@ -5072,7 +5072,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K27">
         <v>0.6666666666666666</v>
@@ -5122,7 +5122,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K28">
         <v>0.6</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -5196,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K29">
         <v>0.6</v>
@@ -5222,7 +5222,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="K30">
         <v>0.5</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5296,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K31">
         <v>0.5</v>
@@ -5322,7 +5322,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K32">
         <v>0.5</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -5396,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="K33">
         <v>0.5</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K34">
         <v>0.5</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K35">
         <v>0.5</v>
@@ -5522,7 +5522,7 @@
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="K36">
         <v>0.5</v>
@@ -5572,7 +5572,7 @@
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -5596,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K37">
         <v>0.5</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="K38">
         <v>0.5</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="K39">
         <v>0.5</v>
@@ -5722,7 +5722,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="K40">
         <v>0.5</v>
@@ -5772,7 +5772,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -5796,7 +5796,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K41">
         <v>0.5</v>
@@ -5822,7 +5822,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="K42">
         <v>0.5</v>
@@ -5872,7 +5872,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5896,7 +5896,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="K43">
         <v>0.5</v>
@@ -5922,7 +5922,7 @@
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K44">
         <v>0.5</v>
@@ -5972,7 +5972,7 @@
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -5996,7 +5996,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K45">
         <v>0.5</v>
@@ -6022,7 +6022,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="K46">
         <v>0.5</v>
@@ -6072,7 +6072,7 @@
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K47">
         <v>0.4285714285714285</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K48">
         <v>0.4166666666666667</v>
@@ -6172,7 +6172,7 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6196,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K49">
         <v>0.4</v>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K50">
         <v>0.3529411764705883</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -6296,7 +6296,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K51">
         <v>0.3333333333333333</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="K52">
         <v>0.3333333333333333</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="K53">
         <v>0.3333333333333333</v>
@@ -6422,7 +6422,7 @@
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6446,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="K54">
         <v>0.3333333333333333</v>
@@ -6472,7 +6472,7 @@
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="K55">
         <v>0.3333333333333333</v>
@@ -6522,7 +6522,7 @@
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6546,7 +6546,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="K56">
         <v>0.3333333333333333</v>
@@ -6572,7 +6572,7 @@
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="K57">
         <v>0.3333333333333333</v>
@@ -6622,7 +6622,7 @@
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -6646,7 +6646,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="K58">
         <v>0.3333333333333333</v>
@@ -6672,7 +6672,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K59">
         <v>0.3333333333333333</v>
@@ -6722,7 +6722,7 @@
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="K60">
         <v>0.3333333333333333</v>
@@ -6772,7 +6772,7 @@
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -6796,7 +6796,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K61">
         <v>0.3</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="K62">
         <v>0.2857142857142857</v>
@@ -6872,7 +6872,7 @@
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -6896,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K63">
         <v>0.2727272727272727</v>
@@ -6922,7 +6922,7 @@
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -6946,7 +6946,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="K64">
         <v>0.2727272727272727</v>
@@ -6972,7 +6972,7 @@
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="K65">
         <v>0.2727272727272727</v>
@@ -7022,7 +7022,7 @@
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="K66">
         <v>0.25</v>
@@ -7072,7 +7072,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -7096,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="K67">
         <v>0.25</v>
@@ -7122,7 +7122,7 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="K68">
         <v>0.25</v>
@@ -7172,7 +7172,7 @@
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -7196,7 +7196,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="K69">
         <v>0.25</v>
@@ -7222,7 +7222,7 @@
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -7246,7 +7246,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="K70">
         <v>0.25</v>
@@ -7272,7 +7272,7 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -7296,7 +7296,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="K71">
         <v>0.25</v>
@@ -7322,7 +7322,7 @@
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K72">
         <v>0.25</v>
@@ -7372,7 +7372,7 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="K73">
         <v>0.21875</v>
@@ -7422,7 +7422,7 @@
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -7446,7 +7446,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="K74">
         <v>0.2142857142857143</v>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -7496,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="K75">
         <v>0.2142857142857143</v>
@@ -7522,7 +7522,7 @@
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -7546,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K76">
         <v>0.2</v>
@@ -7572,7 +7572,7 @@
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -7596,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="K77">
         <v>0.2</v>
@@ -7622,7 +7622,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K78">
         <v>0.2</v>
@@ -7672,7 +7672,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -7696,7 +7696,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="K79">
         <v>0.2</v>
@@ -7722,7 +7722,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7746,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="K80">
         <v>0.2</v>
@@ -7772,7 +7772,7 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="K81">
         <v>0.2</v>
@@ -7822,7 +7822,7 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -7846,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="K82">
         <v>0.2</v>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="K83">
         <v>0.1666666666666667</v>
@@ -7922,7 +7922,7 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="K84">
         <v>0.1666666666666667</v>
@@ -7972,7 +7972,7 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -7996,7 +7996,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="K85">
         <v>0.1666666666666667</v>
@@ -8022,7 +8022,7 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -8046,7 +8046,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="K86">
         <v>0.1666666666666667</v>
@@ -8072,7 +8072,7 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="K87">
         <v>0.1666666666666667</v>
@@ -8122,7 +8122,7 @@
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -8146,7 +8146,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="K88">
         <v>0.1666666666666667</v>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -8196,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="K89">
         <v>0.1666666666666667</v>
@@ -8222,7 +8222,7 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -8246,7 +8246,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="K90">
         <v>0.1666666666666667</v>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="K91">
         <v>0.1666666666666667</v>
@@ -8322,7 +8322,7 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8346,7 +8346,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="K92">
         <v>0.1666666666666667</v>
@@ -8372,7 +8372,7 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="K93">
         <v>0.1538461538461539</v>
@@ -8422,7 +8422,7 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="K94">
         <v>0.1428571428571428</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="95" spans="1:17">
       <c r="A95" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -8496,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="K95">
         <v>0.1428571428571428</v>
@@ -8522,7 +8522,7 @@
     </row>
     <row r="96" spans="1:17">
       <c r="A96" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="K96">
         <v>0.1428571428571428</v>
@@ -8572,7 +8572,7 @@
     </row>
     <row r="97" spans="1:17">
       <c r="A97" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="K97">
         <v>0.1428571428571428</v>
@@ -8622,7 +8622,7 @@
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="K98">
         <v>0.1428571428571428</v>
@@ -8672,7 +8672,7 @@
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="K99">
         <v>0.1428571428571428</v>
@@ -8722,7 +8722,7 @@
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -8746,7 +8746,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="K100">
         <v>0.1428571428571428</v>
@@ -8772,7 +8772,7 @@
     </row>
     <row r="101" spans="1:17">
       <c r="A101" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="K101">
         <v>0.1428571428571428</v>
@@ -8822,7 +8822,7 @@
     </row>
     <row r="102" spans="1:17">
       <c r="A102" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -8846,7 +8846,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="K102">
         <v>0.1333333333333333</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="103" spans="1:17">
       <c r="A103" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -8896,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="K103">
         <v>0.125</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="104" spans="1:17">
       <c r="A104" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K104">
         <v>0.125</v>
@@ -8972,7 +8972,7 @@
     </row>
     <row r="105" spans="1:17">
       <c r="A105" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -8996,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="K105">
         <v>0.125</v>
@@ -9022,7 +9022,7 @@
     </row>
     <row r="106" spans="1:17">
       <c r="A106" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -9046,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="K106">
         <v>0.125</v>
@@ -9072,7 +9072,7 @@
     </row>
     <row r="107" spans="1:17">
       <c r="A107" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="K107">
         <v>0.125</v>
@@ -9122,7 +9122,7 @@
     </row>
     <row r="108" spans="1:17">
       <c r="A108" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="K108">
         <v>0.12</v>
@@ -9172,7 +9172,7 @@
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -9196,7 +9196,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="K109">
         <v>0.1111111111111111</v>
@@ -9222,7 +9222,7 @@
     </row>
     <row r="110" spans="1:17">
       <c r="A110" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="K110">
         <v>0.1</v>
@@ -9272,7 +9272,7 @@
     </row>
     <row r="111" spans="1:17">
       <c r="A111" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -9296,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="K111">
         <v>0.09523809523809523</v>
@@ -9322,7 +9322,7 @@
     </row>
     <row r="112" spans="1:17">
       <c r="A112" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -9346,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="K112">
         <v>0.09523809523809523</v>
@@ -9372,7 +9372,7 @@
     </row>
     <row r="113" spans="1:17">
       <c r="A113" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -9396,7 +9396,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="K113">
         <v>0.09090909090909091</v>
@@ -9422,7 +9422,7 @@
     </row>
     <row r="114" spans="1:17">
       <c r="A114" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -9446,7 +9446,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="K114">
         <v>0.09090909090909091</v>
@@ -9472,7 +9472,7 @@
     </row>
     <row r="115" spans="1:17">
       <c r="A115" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -9496,7 +9496,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="K115">
         <v>0.09090909090909091</v>
@@ -9522,7 +9522,7 @@
     </row>
     <row r="116" spans="1:17">
       <c r="A116" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -9546,7 +9546,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="K116">
         <v>0.08</v>
@@ -9572,7 +9572,7 @@
     </row>
     <row r="117" spans="1:17">
       <c r="A117" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="K117">
         <v>0.07692307692307693</v>
@@ -9622,7 +9622,7 @@
     </row>
     <row r="118" spans="1:17">
       <c r="A118" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B118">
         <v>1</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="K118">
         <v>0.07692307692307693</v>
@@ -9672,7 +9672,7 @@
     </row>
     <row r="119" spans="1:17">
       <c r="A119" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -9696,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="K119">
         <v>0.07142857142857142</v>
@@ -9722,7 +9722,7 @@
     </row>
     <row r="120" spans="1:17">
       <c r="A120" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="K120">
         <v>0.06666666666666667</v>
@@ -9772,7 +9772,7 @@
     </row>
     <row r="121" spans="1:17">
       <c r="A121" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="K121">
         <v>0.0625</v>
@@ -9822,7 +9822,7 @@
     </row>
     <row r="122" spans="1:17">
       <c r="A122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="K122">
         <v>0.05882352941176471</v>
@@ -9872,7 +9872,7 @@
     </row>
     <row r="123" spans="1:17">
       <c r="A123" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="K123">
         <v>0.05</v>
@@ -9922,7 +9922,7 @@
     </row>
     <row r="124" spans="1:17">
       <c r="A124" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -9946,7 +9946,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="K124">
         <v>0.03947368421052631</v>
@@ -9972,7 +9972,7 @@
     </row>
     <row r="125" spans="1:17">
       <c r="A125" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="K125">
         <v>0.03703703703703703</v>
@@ -10022,7 +10022,7 @@
     </row>
     <row r="126" spans="1:17">
       <c r="A126" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="K126">
         <v>0.03703703703703703</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="127" spans="1:17">
       <c r="A127" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -10096,7 +10096,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="K127">
         <v>0.03333333333333333</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="128" spans="1:17">
       <c r="A128" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -10146,7 +10146,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="K128">
         <v>0.03125</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="129" spans="1:17">
       <c r="A129" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="K129">
         <v>0.02564102564102564</v>
@@ -10222,7 +10222,7 @@
     </row>
     <row r="130" spans="1:17">
       <c r="A130" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -10246,7 +10246,7 @@
         <v>0</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="K130">
         <v>0.02564102564102564</v>
@@ -10272,7 +10272,7 @@
     </row>
     <row r="131" spans="1:17">
       <c r="A131" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -10296,7 +10296,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="K131">
         <v>0.02222222222222222</v>
@@ -10322,7 +10322,7 @@
     </row>
     <row r="132" spans="1:17">
       <c r="A132" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="K132">
         <v>0.02083333333333333</v>
@@ -10372,7 +10372,7 @@
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -10396,7 +10396,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="K133">
         <v>0.0196078431372549</v>
@@ -10422,7 +10422,7 @@
     </row>
     <row r="134" spans="1:17">
       <c r="A134" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="135" spans="1:17">
       <c r="A135" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -10522,7 +10522,7 @@
     </row>
     <row r="136" spans="1:17">
       <c r="A136" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -10546,7 +10546,7 @@
         <v>0</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="K136">
         <v>0.0072992700729927</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="137" spans="1:17">
       <c r="A137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="138" spans="1:17">
       <c r="A138" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -10672,7 +10672,7 @@
     </row>
     <row r="139" spans="1:17">
       <c r="A139" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="140" spans="1:17">
       <c r="A140" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -10748,7 +10748,7 @@
     </row>
     <row r="141" spans="1:17">
       <c r="A141" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -10774,7 +10774,7 @@
     </row>
     <row r="142" spans="1:17">
       <c r="A142" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -10800,7 +10800,7 @@
     </row>
     <row r="143" spans="1:17">
       <c r="A143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="144" spans="1:17">
       <c r="A144" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -10852,7 +10852,7 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -10878,7 +10878,7 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -31912,7 +31912,7 @@
     </row>
     <row r="955" spans="1:8">
       <c r="A955" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B955">
         <v>0.02631578947368421</v>
